--- a/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ghichep-ScaleIO\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ghichep-scaleio\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="65">
   <si>
     <t>Controller</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>IP PLANNING dành cho LAB OpenStack - SCALEIO</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>172.16.68.26</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -596,58 +602,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +622,63 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,23 +984,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -1026,7 +1044,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -1044,30 +1062,30 @@
       <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="46">
-        <v>4</v>
-      </c>
-      <c r="I4" s="46">
+      <c r="H4" s="58">
+        <v>4</v>
+      </c>
+      <c r="I4" s="58">
         <v>2</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="59">
         <v>40</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="60">
         <v>40</v>
       </c>
-      <c r="L4" s="42">
-        <v>60</v>
-      </c>
-      <c r="M4" s="42">
-        <v>60</v>
-      </c>
-      <c r="N4" s="42">
+      <c r="L4" s="60">
+        <v>60</v>
+      </c>
+      <c r="M4" s="60">
+        <v>60</v>
+      </c>
+      <c r="N4" s="60">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="35" t="s">
         <v>2</v>
       </c>
@@ -1079,16 +1097,16 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="35" t="s">
         <v>23</v>
       </c>
@@ -1100,16 +1118,16 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="35" t="s">
@@ -1127,30 +1145,30 @@
       <c r="G7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="46">
-        <v>4</v>
-      </c>
-      <c r="I7" s="46">
+      <c r="H7" s="58">
+        <v>4</v>
+      </c>
+      <c r="I7" s="58">
         <v>2</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="59">
         <v>40</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="60">
         <v>40</v>
       </c>
-      <c r="L7" s="42">
-        <v>60</v>
-      </c>
-      <c r="M7" s="42">
-        <v>60</v>
-      </c>
-      <c r="N7" s="42">
+      <c r="L7" s="60">
+        <v>60</v>
+      </c>
+      <c r="M7" s="60">
+        <v>60</v>
+      </c>
+      <c r="N7" s="60">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="35" t="s">
         <v>2</v>
       </c>
@@ -1162,16 +1180,16 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="35" t="s">
         <v>23</v>
       </c>
@@ -1183,13 +1201,13 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
     </row>
     <row r="10" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
@@ -1234,6 +1252,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="B4:B6"/>
@@ -1244,14 +1270,6 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:N6"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1284,23 +1302,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -1344,7 +1362,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -1362,30 +1380,30 @@
       <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="46">
-        <v>4</v>
-      </c>
-      <c r="I4" s="46">
+      <c r="H4" s="58">
+        <v>4</v>
+      </c>
+      <c r="I4" s="58">
         <v>2</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="59">
         <v>40</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="60">
         <v>40</v>
       </c>
-      <c r="L4" s="42">
-        <v>60</v>
-      </c>
-      <c r="M4" s="42">
-        <v>60</v>
-      </c>
-      <c r="N4" s="42">
+      <c r="L4" s="60">
+        <v>60</v>
+      </c>
+      <c r="M4" s="60">
+        <v>60</v>
+      </c>
+      <c r="N4" s="60">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="32" t="s">
         <v>2</v>
       </c>
@@ -1397,16 +1415,16 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="32" t="s">
         <v>23</v>
       </c>
@@ -1418,16 +1436,16 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="32" t="s">
@@ -1445,30 +1463,30 @@
       <c r="G7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="46">
-        <v>4</v>
-      </c>
-      <c r="I7" s="46">
+      <c r="H7" s="58">
+        <v>4</v>
+      </c>
+      <c r="I7" s="58">
         <v>2</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="59">
         <v>40</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="60">
         <v>40</v>
       </c>
-      <c r="L7" s="42">
-        <v>60</v>
-      </c>
-      <c r="M7" s="42">
-        <v>60</v>
-      </c>
-      <c r="N7" s="42">
+      <c r="L7" s="60">
+        <v>60</v>
+      </c>
+      <c r="M7" s="60">
+        <v>60</v>
+      </c>
+      <c r="N7" s="60">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1480,16 +1498,16 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="32" t="s">
         <v>23</v>
       </c>
@@ -1501,16 +1519,24 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="B4:B6"/>
@@ -1521,14 +1547,6 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:N6"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1556,23 +1574,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -1616,7 +1634,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1630,30 +1648,30 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="46">
-        <v>4</v>
-      </c>
-      <c r="I4" s="46">
+      <c r="H4" s="58">
+        <v>4</v>
+      </c>
+      <c r="I4" s="58">
         <v>2</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="59">
         <v>40</v>
       </c>
-      <c r="K4" s="42">
-        <v>60</v>
-      </c>
-      <c r="L4" s="42">
-        <v>60</v>
-      </c>
-      <c r="M4" s="42">
-        <v>60</v>
-      </c>
-      <c r="N4" s="42">
+      <c r="K4" s="60">
+        <v>60</v>
+      </c>
+      <c r="L4" s="60">
+        <v>60</v>
+      </c>
+      <c r="M4" s="60">
+        <v>60</v>
+      </c>
+      <c r="N4" s="60">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1669,16 +1687,16 @@
       <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
@@ -1690,16 +1708,16 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1707,16 +1725,16 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1730,30 +1748,30 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="46">
-        <v>4</v>
-      </c>
-      <c r="I8" s="46">
+      <c r="H8" s="58">
+        <v>4</v>
+      </c>
+      <c r="I8" s="58">
         <v>2</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="59">
         <v>40</v>
       </c>
-      <c r="K8" s="42">
-        <v>60</v>
-      </c>
-      <c r="L8" s="42">
-        <v>60</v>
-      </c>
-      <c r="M8" s="42">
-        <v>60</v>
-      </c>
-      <c r="N8" s="42">
+      <c r="K8" s="60">
+        <v>60</v>
+      </c>
+      <c r="L8" s="60">
+        <v>60</v>
+      </c>
+      <c r="M8" s="60">
+        <v>60</v>
+      </c>
+      <c r="N8" s="60">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1769,16 +1787,16 @@
       <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1790,16 +1808,16 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1807,16 +1825,16 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1830,30 +1848,30 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="46">
-        <v>4</v>
-      </c>
-      <c r="I12" s="46">
+      <c r="H12" s="58">
+        <v>4</v>
+      </c>
+      <c r="I12" s="58">
         <v>2</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="59">
         <v>40</v>
       </c>
-      <c r="K12" s="42">
-        <v>60</v>
-      </c>
-      <c r="L12" s="42">
-        <v>60</v>
-      </c>
-      <c r="M12" s="42">
-        <v>60</v>
-      </c>
-      <c r="N12" s="42">
+      <c r="K12" s="60">
+        <v>60</v>
+      </c>
+      <c r="L12" s="60">
+        <v>60</v>
+      </c>
+      <c r="M12" s="60">
+        <v>60</v>
+      </c>
+      <c r="N12" s="60">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1869,16 +1887,16 @@
       <c r="G13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1890,16 +1908,16 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1907,26 +1925,16 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="H4:H7"/>
     <mergeCell ref="L12:L15"/>
     <mergeCell ref="M12:M15"/>
     <mergeCell ref="N12:N15"/>
@@ -1943,6 +1951,16 @@
     <mergeCell ref="L8:L11"/>
     <mergeCell ref="M8:M11"/>
     <mergeCell ref="N8:N11"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="H4:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1953,10 +1971,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:N11"/>
+  <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1966,46 +1984,46 @@
     <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="64" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="9.5703125" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.5703125" style="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -2049,7 +2067,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="65" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -2067,24 +2085,24 @@
       <c r="G5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56">
-        <v>4</v>
-      </c>
-      <c r="I5" s="46">
-        <v>4</v>
-      </c>
-      <c r="J5" s="47">
+      <c r="H5" s="67">
+        <v>4</v>
+      </c>
+      <c r="I5" s="58">
+        <v>4</v>
+      </c>
+      <c r="J5" s="59">
         <v>100</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="60">
         <v>100</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
@@ -2096,16 +2114,16 @@
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="65" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -2123,22 +2141,22 @@
       <c r="G7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="67">
         <v>8</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="58">
         <v>8</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="59">
         <v>100</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
@@ -2150,31 +2168,31 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="62" t="s">
+      <c r="E9" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="40">
@@ -2194,22 +2212,22 @@
       <c r="N9" s="39"/>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="46" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="62" t="s">
+      <c r="E10" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="47" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="40">
@@ -2229,22 +2247,22 @@
       <c r="N10" s="39"/>
     </row>
     <row r="11" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="62" t="s">
+      <c r="E11" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="47" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="40">
@@ -2263,8 +2281,44 @@
       <c r="M11" s="39"/>
       <c r="N11" s="39"/>
     </row>
+    <row r="12" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="45">
+        <v>4</v>
+      </c>
+      <c r="I12" s="43">
+        <v>2</v>
+      </c>
+      <c r="J12" s="44">
+        <v>20</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
@@ -2281,9 +2335,6 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2312,40 +2363,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -2389,7 +2440,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="65" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -2403,24 +2454,24 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="56">
+      <c r="H5" s="67">
         <v>6</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="58">
         <v>2</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="59">
         <v>100</v>
       </c>
-      <c r="K5" s="42">
-        <v>60</v>
-      </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="K5" s="60">
+        <v>60</v>
+      </c>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="27" t="s">
         <v>40</v>
       </c>
@@ -2436,16 +2487,16 @@
       <c r="G6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="65" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -2459,22 +2510,22 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="56">
+      <c r="H7" s="67">
         <v>8</v>
       </c>
-      <c r="I7" s="46">
-        <v>4</v>
-      </c>
-      <c r="J7" s="47">
+      <c r="I7" s="58">
+        <v>4</v>
+      </c>
+      <c r="J7" s="59">
         <v>100</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="27" t="s">
         <v>40</v>
       </c>
@@ -2490,16 +2541,16 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="65" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="28" t="s">
@@ -2513,22 +2564,22 @@
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="56">
+      <c r="H9" s="67">
         <v>8</v>
       </c>
-      <c r="I9" s="46">
-        <v>4</v>
-      </c>
-      <c r="J9" s="47">
-        <v>60</v>
-      </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
+      <c r="I9" s="58">
+        <v>4</v>
+      </c>
+      <c r="J9" s="59">
+        <v>60</v>
+      </c>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="55"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="27" t="s">
         <v>40</v>
       </c>
@@ -2544,16 +2595,16 @@
       <c r="G10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="65" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -2567,30 +2618,30 @@
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="56">
+      <c r="H11" s="67">
         <v>8</v>
       </c>
-      <c r="I11" s="46">
-        <v>4</v>
-      </c>
-      <c r="J11" s="47">
-        <v>60</v>
-      </c>
-      <c r="K11" s="42">
+      <c r="I11" s="58">
+        <v>4</v>
+      </c>
+      <c r="J11" s="59">
+        <v>60</v>
+      </c>
+      <c r="K11" s="60">
         <v>50</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="60">
         <v>50</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="60">
         <v>50</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="60">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="55"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="29" t="s">
         <v>40</v>
       </c>
@@ -2606,16 +2657,16 @@
       <c r="G12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="30" t="s">
         <v>41</v>
       </c>
@@ -2627,37 +2678,16 @@
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
@@ -2672,6 +2702,27 @@
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
